--- a/xlsx/金州勇士_intext.xlsx
+++ b/xlsx/金州勇士_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="622">
   <si>
     <t>金州勇士</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%83%A8%E8%81%AF%E7%9B%9F_(NBA)</t>
   </si>
   <si>
-    <t>西部聯盟 (NBA)</t>
+    <t>西部联盟 (NBA)</t>
   </si>
   <si>
     <t>政策_政策_加州_金州勇士</t>
@@ -41,13 +41,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%B2%E9%AA%A8%E6%96%87%E9%AB%94%E8%82%B2%E9%A4%A8</t>
   </si>
   <si>
-    <t>甲骨文體育館</t>
+    <t>甲骨文体育馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亞州</t>
+    <t>加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%85%8B%E5%85%B0_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/2014-15_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>2014-15 NBA賽季</t>
+    <t>2014-15 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2016-17_NBA%E8%B5%9B%E5%AD%A3</t>
@@ -101,9 +101,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亚州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/NBA</t>
   </si>
   <si>
@@ -143,13 +140,13 @@
     <t>https://zh.wikipedia.org/wiki/NBA%E5%8B%9D%E7%8E%87%E6%8E%92%E5%90%8D</t>
   </si>
   <si>
-    <t>NBA勝率排名</t>
+    <t>NBA胜率排名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1995-96_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>1995-96 NBA賽季</t>
+    <t>1995-96 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E5%85%AC%E7%89%9B</t>
@@ -185,7 +182,7 @@
     <t>https://zh.wikipedia.org/wiki/1946-47_BAA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>1946-47 BAA賽季</t>
+    <t>1946-47 BAA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BD%97%C2%B7%E9%98%BF%E9%87%8C%E9%87%91</t>
@@ -233,15 +230,9 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E7%81%A3%E5%8D%80</t>
   </si>
   <si>
-    <t>舊金山灣區</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1</t>
   </si>
   <si>
-    <t>舊金山</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E5%88%A9%E5%B8%82</t>
   </si>
   <si>
@@ -251,13 +242,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E5%AE%AE</t>
   </si>
   <si>
-    <t>牛宮</t>
+    <t>牛宫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8D%B7%E8%A5%BF_(%E7%BE%8E%E5%9C%8B%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖荷西 (美國加州)</t>
+    <t>圣荷西 (美国加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1963-64_NBA%E8%B5%9B%E5%AD%A3</t>
@@ -269,13 +260,13 @@
     <t>https://zh.wikipedia.org/wiki/NBA%E7%B8%BD%E6%B1%BA%E8%B3%BD</t>
   </si>
   <si>
-    <t>NBA總決賽</t>
+    <t>NBA总决赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93%E5%A1%9E%E7%88%BE%E6%8F%90%E5%85%8B</t>
   </si>
   <si>
-    <t>波士頓塞爾提克</t>
+    <t>波士顿塞尔提克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E5%85%8B%C2%B7%E5%B7%B4%E9%87%8C</t>
@@ -299,19 +290,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%9F%8E76%E4%BA%BA</t>
   </si>
   <si>
-    <t>費城76人</t>
+    <t>费城76人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1967-68_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>1967-68 NBA賽季</t>
+    <t>1967-68 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B1%83%E7%90%83%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>美國籃球協會</t>
+    <t>美国篮球协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%85%8B%E5%85%B0%E6%A9%A1%E6%A0%91%E9%98%9F</t>
@@ -323,31 +314,31 @@
     <t>https://zh.wikipedia.org/wiki/1970-71_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>1970-71 NBA賽季</t>
+    <t>1970-71 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E7%88%BE%E7%93%A6%E5%9F%BA%E5%85%AC%E9%B9%BF</t>
   </si>
   <si>
-    <t>密爾瓦基公鹿</t>
+    <t>密尔瓦基公鹿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1971-72_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>1971-72 NBA賽季</t>
+    <t>1971-72 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5_(%E7%BE%8E%E5%9C%8B%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖地牙哥 (美國加州)</t>
+    <t>圣地牙哥 (美国加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%8B%C2%B7%E8%B2%9D%E7%91%9E</t>
   </si>
   <si>
-    <t>瑞克·貝瑞</t>
+    <t>瑞克·贝瑞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%AD%90%E5%BC%B9</t>
@@ -359,13 +350,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E4%BB%96%E7%88%B5%E5%A3%AB%E9%9A%8A</t>
   </si>
   <si>
-    <t>猶他爵士隊</t>
+    <t>犹他爵士队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E6%B9%96%E4%BA%BA%E9%9A%8A</t>
   </si>
   <si>
-    <t>洛杉磯湖人隊</t>
+    <t>洛杉矶湖人队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2006-07_NBA%E8%B5%9B%E5%AD%A3</t>
@@ -383,37 +374,37 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%91%E8%BD%9F%E6%88%B0%E8%A1%93</t>
   </si>
   <si>
-    <t>跑轟戰術</t>
+    <t>跑轰战术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%89%B9%E8%98%AD%E6%8B%93%E8%8D%92%E8%80%85</t>
   </si>
   <si>
-    <t>波特蘭拓荒者</t>
+    <t>波特兰拓荒者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NBA%E5%AD%A3%E5%BE%8C%E8%B3%BD</t>
   </si>
   <si>
-    <t>NBA季後賽</t>
+    <t>NBA季后赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E6%8B%89%E6%96%AF%E5%B0%8F%E7%89%9B</t>
   </si>
   <si>
-    <t>達拉斯小牛</t>
+    <t>达拉斯小牛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%81%E5%85%AB%E5%82%B3%E5%A5%87</t>
   </si>
   <si>
-    <t>老八傳奇</t>
+    <t>老八传奇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E4%BD%9B%E9%87%91%E5%A1%8A</t>
   </si>
   <si>
-    <t>丹佛金塊</t>
+    <t>丹佛金块</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%92%82%E8%8A%AC%C2%B7%E6%9F%AF%E7%91%9E</t>
@@ -425,7 +416,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%9B%B7%C2%B7%E6%B9%AF%E6%99%AE%E6%A3%AE</t>
   </si>
   <si>
-    <t>克雷·湯普森</t>
+    <t>克雷·汤普森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%AA%E8%8A%B1%E5%85%84%E5%BC%9F_(NBA)</t>
@@ -443,25 +434,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E5%BF%AB%E8%89%87</t>
   </si>
   <si>
-    <t>洛杉磯快艇</t>
+    <t>洛杉矶快艇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E6%8F%90%E5%A4%AB%C2%B7%E5%8D%A1%E7%88%BE</t>
   </si>
   <si>
-    <t>史提夫·卡爾</t>
+    <t>史提夫·卡尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NBA%E6%9C%80%E6%9C%89%E5%83%B9%E5%80%BC%E7%90%83%E5%93%A1</t>
   </si>
   <si>
-    <t>NBA最有價值球員</t>
+    <t>NBA最有价值球员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E5%A5%A7%E8%89%AF%E9%B5%9C%E9%B6%98</t>
   </si>
   <si>
-    <t>紐奧良鵜鶘</t>
+    <t>纽奥良鹈鹕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E8%8F%B2%E6%96%AF%E7%81%B0%E7%86%8A</t>
@@ -479,13 +470,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E5%A3%AB%E9%A0%93%E7%81%AB%E7%AE%AD</t>
   </si>
   <si>
-    <t>休士頓火箭</t>
+    <t>休士顿火箭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%8D%93%C2%B7%E4%BC%8A%E5%8F%A4%E9%81%94%E6%8B%89</t>
   </si>
   <si>
-    <t>安卓·伊古達拉</t>
+    <t>安卓·伊古达拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NBA%E6%80%BB%E5%86%B3%E8%B5%9BMVP</t>
@@ -509,25 +500,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E5%85%8B%C2%B7%E8%8F%AF%E9%A0%93</t>
   </si>
   <si>
-    <t>盧克·華頓</t>
+    <t>卢克·华顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>華盛頓國會</t>
+    <t>华盛顿国会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E9%98%BF%E5%AF%86%E7%86%B1%E7%81%AB</t>
   </si>
   <si>
-    <t>邁阿密熱火</t>
+    <t>迈阿密热火</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E6%B9%96%E4%BA%BA</t>
   </si>
   <si>
-    <t>洛杉磯湖人</t>
+    <t>洛杉矶湖人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%85%B0%E5%A4%9A%E9%AD%94%E6%9C%AF</t>
@@ -539,7 +530,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E9%AD%AF%C2%B7%E6%B3%A2%E6%A0%BC%E7%89%B9</t>
   </si>
   <si>
-    <t>安德魯·波格特</t>
+    <t>安德鲁·波格特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E9%87%8C%E6%A3%AE%C2%B7%E5%B7%B4%E6%81%A9%E6%96%AF</t>
@@ -563,13 +554,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E6%98%82%E5%BE%B7%E7%BE%85%C2%B7%E5%B7%B4%E4%BC%AF%E6%B2%99</t>
   </si>
   <si>
-    <t>萊昂德羅·巴伯沙</t>
+    <t>莱昂德罗·巴伯沙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A1%9B%C2%B7%E5%A8%81%E6%96%AF%E7%89%B9</t>
   </si>
   <si>
-    <t>大衛·威斯特</t>
+    <t>大卫·威斯特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%8E%E6%89%8E%C2%B7%E5%B8%95%E6%A5%9A%E9%87%8C%E4%BA%9A</t>
@@ -587,37 +578,34 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E4%BB%96%E7%88%B5%E5%A3%AB</t>
   </si>
   <si>
-    <t>猶他爵士</t>
+    <t>犹他爵士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%87%B7%C2%B7%E9%9B%B7%E7%B4%8D%E5%BE%B7</t>
   </si>
   <si>
-    <t>科懷·雷納德</t>
+    <t>科怀·雷纳德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NBA%E6%9C%80%E4%BD%B3%E9%98%B2%E5%AE%88%E7%90%83%E5%93%A1</t>
   </si>
   <si>
-    <t>NBA最佳防守球員</t>
+    <t>NBA最佳防守球员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B3%B3%E5%87%B0%E5%9F%8E%E5%A4%AA%E9%99%BD</t>
   </si>
   <si>
-    <t>鳳凰城太陽</t>
+    <t>凤凰城太阳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E5%A4%AB%E8%98%AD%E9%A8%8E%E5%A3%AB</t>
   </si>
   <si>
-    <t>克里夫蘭騎士</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/2017%E5%B9%B4NBA%E7%B8%BD%E6%B1%BA%E8%B3%BD</t>
   </si>
   <si>
-    <t>2017年NBA總決賽</t>
+    <t>2017年NBA总决赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NBA%E6%80%BB%E5%86%B3%E8%B5%9B%E6%9C%80%E6%9C%89%E4%BB%B7%E5%80%BC%E7%90%83%E5%91%98</t>
@@ -629,13 +617,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E9%9C%B8%E9%BE%8D%C2%B7%E8%A9%B9%E5%A7%86%E5%A3%AB</t>
   </si>
   <si>
-    <t>雷霸龍·詹姆士</t>
+    <t>雷霸龙·詹姆士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E9%87%8C%C2%B7%E5%8E%84%E6%96%87</t>
   </si>
   <si>
-    <t>凱里·厄文</t>
+    <t>凯里·厄文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/J%C2%B7R%C2%B7%E5%8F%B2%E5%AF%86%E6%96%AF</t>
@@ -647,7 +635,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E7%91%9E%E6%96%AF%E5%9D%A6%C2%B7%E6%B9%AF%E6%99%AE%E6%A3%AE</t>
   </si>
   <si>
-    <t>泰瑞斯坦·湯普森</t>
+    <t>泰瑞斯坦·汤普森</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Philadelphia_Arena</t>
@@ -671,7 +659,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E5%B8%82%E7%A6%AE%E5%A0%82</t>
   </si>
   <si>
-    <t>舊金山市禮堂</t>
+    <t>旧金山市礼堂</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/War_Memorial_Gymnasium</t>
@@ -683,7 +671,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8D%B7%E8%A5%BFSAP%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>聖荷西SAP中心</t>
+    <t>圣荷西SAP中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%B7%AF%E6%98%93%E6%96%AF%E8%BD%B0%E7%82%B8%E6%9C%BA</t>
@@ -701,21 +689,18 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E7%9A%84%E6%91%A9%E5%AD%90%E5%BD%88</t>
   </si>
   <si>
-    <t>巴爾的摩子彈</t>
+    <t>巴尔的摩子弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1948-49_BAA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>1948-49 BAA賽季</t>
+    <t>1948-49 BAA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%9B%BD%E4%BC%9A</t>
   </si>
   <si>
-    <t>华盛顿国会</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/1949-50_NBA%E8%B5%9B%E5%AD%A3</t>
   </si>
   <si>
@@ -725,9 +710,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E5%9F%8E76%E4%BA%BA</t>
   </si>
   <si>
-    <t>费城76人</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/1950-51_NBA%E8%B5%9B%E5%AD%A3</t>
   </si>
   <si>
@@ -743,7 +725,7 @@
     <t>https://zh.wikipedia.org/wiki/1952-53_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>1952-53 NBA賽季</t>
+    <t>1952-53 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1953-54_NBA%E8%B5%9B%E5%AD%A3</t>
@@ -761,13 +743,13 @@
     <t>https://zh.wikipedia.org/wiki/1956-57_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>1956-57 NBA賽季</t>
+    <t>1956-57 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1957-58_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>1957-58 NBA賽季</t>
+    <t>1957-58 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A1%BF%E5%87%AF%E5%B0%94%E7%89%B9%E4%BA%BA</t>
@@ -779,7 +761,7 @@
     <t>https://zh.wikipedia.org/wiki/1958-59_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>1958-59 NBA賽季</t>
+    <t>1958-59 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1959-60_NBA%E8%B5%9B%E5%AD%A3</t>
@@ -797,13 +779,13 @@
     <t>https://zh.wikipedia.org/wiki/1961-62_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>1961-62 NBA賽季</t>
+    <t>1961-62 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1962-63_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>1962-63 NBA賽季</t>
+    <t>1962-63 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E7%89%B9%E5%85%B0%E5%A4%A7%E8%80%81%E9%B9%B0</t>
@@ -815,21 +797,18 @@
     <t>https://zh.wikipedia.org/wiki/1964-65_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>1964-65 NBA賽季</t>
+    <t>1964-65 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1965-66_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>1965-66 NBA賽季</t>
+    <t>1965-66 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%9F%B6%E6%B9%96%E4%BA%BA</t>
   </si>
   <si>
-    <t>洛杉矶湖人</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/1968-69_NBA%E8%B5%9B%E5%AD%A3</t>
   </si>
   <si>
@@ -839,7 +818,7 @@
     <t>https://zh.wikipedia.org/wiki/1969-70_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>1969-70 NBA賽季</t>
+    <t>1969-70 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E5%B0%94%E6%B2%83%E5%9F%BA%E9%9B%84%E9%B9%BF</t>
@@ -851,7 +830,7 @@
     <t>https://zh.wikipedia.org/wiki/1972-73_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>1972-73 NBA賽季</t>
+    <t>1972-73 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1973-74_NBA%E8%B5%9B%E5%AD%A3</t>
@@ -881,187 +860,184 @@
     <t>https://zh.wikipedia.org/wiki/1976-77_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>1976-77 NBA賽季</t>
+    <t>1976-77 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1977-78_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>1977-78 NBA賽季</t>
+    <t>1977-78 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1978-79_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>1978-79 NBA賽季</t>
+    <t>1978-79 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1979-80_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>1979-80 NBA賽季</t>
+    <t>1979-80 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1980-81_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>1980-81 NBA賽季</t>
+    <t>1980-81 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1981-82_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>1981-82 NBA賽季</t>
+    <t>1981-82 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1982-83_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>1982-83 NBA賽季</t>
+    <t>1982-83 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1983-84_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>1983-84 NBA賽季</t>
+    <t>1983-84 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1984-85_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>1984-85 NBA賽季</t>
+    <t>1984-85 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1985-86_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>1985-86 NBA賽季</t>
+    <t>1985-86 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1986-87_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>1986-87 NBA賽季</t>
+    <t>1986-87 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E4%BB%96%E7%88%B5%E5%A3%AB</t>
   </si>
   <si>
-    <t>犹他爵士</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/1987-88_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>1987-88 NBA賽季</t>
+    <t>1987-88 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1988-89_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>1988-89 NBA賽季</t>
+    <t>1988-89 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1989-90_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>1989-90 NBA賽季</t>
+    <t>1989-90 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1990-91_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>1990-91 NBA賽季</t>
+    <t>1990-91 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1991-92_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>1991-92 NBA賽季</t>
+    <t>1991-92 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1992-93_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>1992-93 NBA賽季</t>
+    <t>1992-93 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1993-94_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>1993-94 NBA賽季</t>
+    <t>1993-94 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1996-97_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>1996-97 NBA賽季</t>
+    <t>1996-97 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1997-98_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>1997-98 NBA賽季</t>
+    <t>1997-98 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1998-99_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>1998-99 NBA賽季</t>
+    <t>1998-99 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1999-00_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>1999-00 NBA賽季</t>
+    <t>1999-00 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2000-01_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>2000-01 NBA賽季</t>
+    <t>2000-01 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2001-02_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>2001-02 NBA賽季</t>
+    <t>2001-02 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2002-03_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>2002-03 NBA賽季</t>
+    <t>2002-03 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2003-04_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>2003-04 NBA賽季</t>
+    <t>2003-04 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2004-05_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>2004-05 NBA賽季</t>
+    <t>2004-05 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2005-06_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>2005-06 NBA賽季</t>
+    <t>2005-06 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2007-08_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>2007-08 NBA賽季</t>
+    <t>2007-08 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2008-09_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>2008-09 NBA賽季</t>
+    <t>2008-09 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2009-10_NBA%E8%B5%9B%E5%AD%A3</t>
@@ -1073,7 +1049,7 @@
     <t>https://zh.wikipedia.org/wiki/2010-11_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>2010-11 NBA賽季</t>
+    <t>2010-11 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2011-12_NBA%E8%B5%9B%E5%AD%A3</t>
@@ -1091,13 +1067,13 @@
     <t>https://zh.wikipedia.org/wiki/2013-14_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>2013-14 NBA賽季</t>
+    <t>2013-14 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A5%A7%E7%88%BE%E8%89%AF%E5%A1%98%E9%B5%9D</t>
   </si>
   <si>
-    <t>新奧爾良塘鵝</t>
+    <t>新奥尔良塘鹅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E6%96%90%E6%96%AF%E7%81%B0%E7%86%8A</t>
@@ -1133,7 +1109,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%BE%E5%B1%88%E5%85%8B%C2%B7%E9%BA%A5%E8%80%83</t>
   </si>
   <si>
-    <t>派屈克·麥考</t>
+    <t>派屈克·麦考</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%A4%A7%E5%AD%A6%E6%8B%89%E6%96%AF%E7%BB%B4%E5%8A%A0%E6%96%AF%E5%88%86%E6%A0%A1</t>
@@ -1151,7 +1127,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%A4%A7%E5%AD%B8%E9%9B%B7%E8%AB%BE%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>內華達大學雷諾分校</t>
+    <t>内华达大学雷诺分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%89%8D%E9%94%8B</t>
@@ -1169,7 +1145,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E7%B6%AD%E7%88%BE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>澤維爾大學</t>
+    <t>泽维尔大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%AF%E6%96%87%C2%B7%E5%8D%A2%E5%B0%BC</t>
@@ -1211,7 +1187,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>華盛頓州立大學</t>
+    <t>华盛顿州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%85%8B%C2%B7%E6%9D%A8</t>
@@ -1223,7 +1199,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>南加州大學</t>
+    <t>南加州大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%BE%E7%B1%B3%E5%AE%89%C2%B7%E7%90%BC%E6%96%AF</t>
@@ -1253,7 +1229,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BE%85%E4%BE%86%E7%B4%8D%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>北卡羅來納大學</t>
+    <t>北卡罗来纳大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
@@ -1289,13 +1265,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E%E5%A4%A7%E5%AD%B8%E5%A5%A7%E6%96%AF%E6%B1%80%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>德克薩斯州大學奧斯汀分校</t>
+    <t>德克萨斯州大学奥斯汀分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E5%80%AB%C2%B7%E7%A7%91%E6%9E%97%E6%96%AF</t>
   </si>
   <si>
-    <t>賈倫·科林斯</t>
+    <t>贾伦·科林斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%88%E5%85%8B%C2%B7%E5%B8%83%E6%9C%97_(%E7%AF%AE%E7%90%83%E6%95%99%E7%BB%83)</t>
@@ -1397,15 +1373,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%9A%E6%81%A9%C2%B7%E6%9D%8E%E6%96%87%E6%96%AF%E9%A0%93</t>
   </si>
   <si>
-    <t>尚恩·李文斯頓</t>
+    <t>尚恩·李文斯顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%8B%92</t>
   </si>
   <si>
-    <t>中鋒</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%A4%E5%A7%86%C2%B7%E6%A2%85%E5%88%87%E9%87%8C</t>
   </si>
   <si>
@@ -1559,7 +1532,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%A0%BC%E5%B9%B4%C2%B7%E5%BA%AB%E5%85%B9%E7%B1%B3%E5%A5%87</t>
   </si>
   <si>
-    <t>奥格年·庫兹米奇</t>
+    <t>奥格年·库兹米奇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%85%B0%E7%99%BB%C2%B7%E6%8B%89%E4%BB%80</t>
@@ -1595,13 +1568,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A1%9B%C2%B7%E5%A8%81%E6%96%AF%E7%89%B9_(%E7%B1%83%E7%90%83)</t>
   </si>
   <si>
-    <t>大衛·威斯特 (籃球)</t>
+    <t>大卫·威斯特 (篮球)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E6%96%87%C2%B7%E9%AD%AF%E5%B0%BC</t>
   </si>
   <si>
-    <t>凱文·魯尼</t>
+    <t>凯文·鲁尼</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/James_Michael_McAdoo</t>
@@ -1631,19 +1604,16 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E5%85%8B%C2%B7%E5%B8%83%E6%9C%97_(%E7%B1%83%E7%90%83%E6%95%99%E7%B7%B4)</t>
   </si>
   <si>
-    <t>邁克·布朗 (籃球教練)</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/2017-18_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>2017-18 NBA賽季</t>
+    <t>2017-18 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%80%E8%81%AF%E7%9B%9F_(NBA)</t>
   </si>
   <si>
-    <t>東區聯盟 (NBA)</t>
+    <t>东区联盟 (NBA)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NBA%E5%A4%A7%E8%A5%BF%E6%B4%8B%E8%B5%9B%E5%8C%BA</t>
@@ -1685,15 +1655,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E6%B4%9B%E7%89%B9%E9%BB%83%E8%9C%82</t>
   </si>
   <si>
-    <t>夏洛特黃蜂</t>
+    <t>夏洛特黄蜂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%88%E9%98%BF%E5%AF%86%E7%83%AD%E7%81%AB</t>
   </si>
   <si>
-    <t>迈阿密热火</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%A5%87%E6%89%8D</t>
   </si>
   <si>
@@ -1733,7 +1700,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%8A%A0%E7%B7%AC%E5%BA%A6%E5%9C%8B%E7%8E%8B</t>
   </si>
   <si>
-    <t>沙加緬度國王</t>
+    <t>沙加缅度国王</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NBA%E8%A5%BF%E5%8D%97%E8%B5%9B%E5%8C%BA</t>
@@ -1745,7 +1712,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E6%8B%89%E6%96%AF%E7%8D%A8%E8%A1%8C%E4%BF%A0</t>
   </si>
   <si>
-    <t>達拉斯獨行俠</t>
+    <t>达拉斯独行侠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E6%96%AF%E6%95%A6%E7%81%AB%E7%AE%AD</t>
@@ -1781,7 +1748,7 @@
     <t>https://zh.wikipedia.org/wiki/NBA%E8%81%96%E8%AA%95%E7%AF%80%E8%B3%BD%E4%BA%8B</t>
   </si>
   <si>
-    <t>NBA聖誕節賽事</t>
+    <t>NBA圣诞节赛事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NBA%E5%85%A8%E6%98%8E%E6%98%9F%E5%91%A8%E6%9C%AB</t>
@@ -1799,25 +1766,19 @@
     <t>https://zh.wikipedia.org/wiki/NBA%E5%85%A8%E6%98%8E%E6%98%9F%E8%B3%BD%E6%9C%80%E6%9C%89%E5%83%B9%E5%80%BC%E7%90%83%E5%93%A1</t>
   </si>
   <si>
-    <t>NBA全明星賽最有價值球員</t>
+    <t>NBA全明星赛最有价值球员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NBA%E5%AD%A3%E5%90%8E%E8%B5%9B</t>
   </si>
   <si>
-    <t>NBA季后赛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/NBA%E6%80%BB%E5%86%B3%E8%B5%9B</t>
   </si>
   <si>
-    <t>NBA总决赛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/NBA%E4%B8%AD%E5%9C%8B%E8%B3%BD</t>
   </si>
   <si>
-    <t>NBA中國賽</t>
+    <t>NBA中国赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NBA50%E5%A4%A7%E5%B7%A8%E6%98%9F</t>
@@ -1859,7 +1820,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E9%87%8C%C2%B7%E5%A5%A7%E5%B8%83%E8%B3%B4%E6%81%A9%E5%86%A0%E8%BB%8D%E7%8D%8E%E7%9B%83</t>
   </si>
   <si>
-    <t>拉里·奧布賴恩冠軍獎盃</t>
+    <t>拉里·奥布赖恩冠军奖杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NBA%E5%90%89%E7%A5%A5%E7%89%A9%E5%88%97%E8%A1%A8</t>
@@ -1877,7 +1838,7 @@
     <t>https://zh.wikipedia.org/wiki/NBA%E7%B8%BD%E5%86%A0%E8%BB%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>NBA總冠軍列表</t>
+    <t>NBA总冠军列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E7%AF%AE%E7%90%83%E8%81%94%E7%9B%9F</t>
@@ -1895,7 +1856,7 @@
     <t>https://zh.wikipedia.org/wiki/NBA%E7%B4%80%E9%8C%84</t>
   </si>
   <si>
-    <t>NBA紀錄</t>
+    <t>NBA纪录</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NBA%E5%B7%A5%E8%B5%84%E5%B8%BD</t>
@@ -2667,7 +2628,7 @@
         <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -2722,10 +2683,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
         <v>29</v>
-      </c>
-      <c r="F16" t="s">
-        <v>30</v>
       </c>
       <c r="G16" t="n">
         <v>50</v>
@@ -2751,10 +2712,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" t="s">
         <v>31</v>
-      </c>
-      <c r="F17" t="s">
-        <v>32</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -2809,10 +2770,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" t="s">
         <v>33</v>
-      </c>
-      <c r="F19" t="s">
-        <v>34</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -2838,10 +2799,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" t="s">
         <v>35</v>
-      </c>
-      <c r="F20" t="s">
-        <v>36</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -2867,10 +2828,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" t="s">
         <v>37</v>
-      </c>
-      <c r="F21" t="s">
-        <v>38</v>
       </c>
       <c r="G21" t="n">
         <v>12</v>
@@ -2896,10 +2857,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" t="s">
         <v>39</v>
-      </c>
-      <c r="F22" t="s">
-        <v>40</v>
       </c>
       <c r="G22" t="n">
         <v>2</v>
@@ -2954,10 +2915,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" t="s">
         <v>41</v>
-      </c>
-      <c r="F24" t="s">
-        <v>42</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -2983,10 +2944,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" t="s">
         <v>43</v>
-      </c>
-      <c r="F25" t="s">
-        <v>44</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -3012,10 +2973,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
         <v>45</v>
-      </c>
-      <c r="F26" t="s">
-        <v>46</v>
       </c>
       <c r="G26" t="n">
         <v>4</v>
@@ -3041,10 +3002,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" t="s">
         <v>47</v>
-      </c>
-      <c r="F27" t="s">
-        <v>48</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -3070,10 +3031,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" t="s">
         <v>49</v>
-      </c>
-      <c r="F28" t="s">
-        <v>50</v>
       </c>
       <c r="G28" t="n">
         <v>5</v>
@@ -3099,10 +3060,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" t="s">
         <v>51</v>
-      </c>
-      <c r="F29" t="s">
-        <v>52</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -3128,10 +3089,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" t="s">
         <v>53</v>
-      </c>
-      <c r="F30" t="s">
-        <v>54</v>
       </c>
       <c r="G30" t="n">
         <v>2</v>
@@ -3157,10 +3118,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" t="s">
         <v>55</v>
-      </c>
-      <c r="F31" t="s">
-        <v>56</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -3186,10 +3147,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" t="s">
         <v>57</v>
-      </c>
-      <c r="F32" t="s">
-        <v>58</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -3215,10 +3176,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" t="s">
         <v>59</v>
-      </c>
-      <c r="F33" t="s">
-        <v>60</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -3244,10 +3205,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" t="s">
         <v>61</v>
-      </c>
-      <c r="F34" t="s">
-        <v>62</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -3302,10 +3263,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" t="s">
         <v>63</v>
-      </c>
-      <c r="F36" t="s">
-        <v>64</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -3331,10 +3292,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" t="s">
         <v>65</v>
-      </c>
-      <c r="F37" t="s">
-        <v>66</v>
       </c>
       <c r="G37" t="n">
         <v>2</v>
@@ -3360,10 +3321,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>66</v>
+      </c>
+      <c r="F38" t="s">
         <v>67</v>
-      </c>
-      <c r="F38" t="s">
-        <v>68</v>
       </c>
       <c r="G38" t="n">
         <v>2</v>
@@ -3389,10 +3350,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39" t="s">
         <v>69</v>
-      </c>
-      <c r="F39" t="s">
-        <v>70</v>
       </c>
       <c r="G39" t="n">
         <v>5</v>
@@ -3418,10 +3379,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F40" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -3447,10 +3408,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F41" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="G41" t="n">
         <v>12</v>
@@ -3476,10 +3437,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F42" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -3505,10 +3466,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F43" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -3534,10 +3495,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F44" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G44" t="n">
         <v>3</v>
@@ -3563,10 +3524,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F45" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -3592,10 +3553,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F46" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G46" t="n">
         <v>4</v>
@@ -3621,10 +3582,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F47" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -3650,10 +3611,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F48" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G48" t="n">
         <v>8</v>
@@ -3679,10 +3640,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F49" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -3708,10 +3669,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F50" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3737,10 +3698,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F51" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3766,10 +3727,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F52" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G52" t="n">
         <v>5</v>
@@ -3795,10 +3756,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F53" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3824,10 +3785,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F54" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G54" t="n">
         <v>4</v>
@@ -3853,10 +3814,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F55" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3882,10 +3843,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F56" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3940,10 +3901,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F58" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -3969,10 +3930,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F59" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3998,10 +3959,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F60" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -4027,10 +3988,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F61" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -4056,10 +4017,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F62" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -4085,10 +4046,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F63" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -4114,10 +4075,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F64" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -4143,10 +4104,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F65" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -4172,10 +4133,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F66" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -4201,10 +4162,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F67" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -4230,10 +4191,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F68" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G68" t="n">
         <v>5</v>
@@ -4259,10 +4220,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F69" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G69" t="n">
         <v>3</v>
@@ -4288,10 +4249,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F70" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -4317,10 +4278,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F71" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -4346,10 +4307,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F72" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G72" t="n">
         <v>3</v>
@@ -4375,10 +4336,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F73" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G73" t="n">
         <v>5</v>
@@ -4404,10 +4365,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F74" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G74" t="n">
         <v>4</v>
@@ -4433,10 +4394,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F75" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G75" t="n">
         <v>7</v>
@@ -4462,10 +4423,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F76" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -4491,10 +4452,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F77" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G77" t="n">
         <v>3</v>
@@ -4520,10 +4481,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F78" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G78" t="n">
         <v>4</v>
@@ -4578,10 +4539,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F80" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4607,10 +4568,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F81" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4636,10 +4597,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F82" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4665,10 +4626,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F83" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4694,10 +4655,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F84" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G84" t="n">
         <v>4</v>
@@ -4723,10 +4684,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F85" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G85" t="n">
         <v>3</v>
@@ -4752,10 +4713,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F86" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -4781,10 +4742,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F87" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4810,10 +4771,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F88" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G88" t="n">
         <v>5</v>
@@ -4839,10 +4800,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F89" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4868,10 +4829,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F90" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4897,10 +4858,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F91" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4926,10 +4887,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F92" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G92" t="n">
         <v>13</v>
@@ -4955,10 +4916,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F93" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -4984,10 +4945,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F94" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5013,10 +4974,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F95" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -5042,10 +5003,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F96" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5071,10 +5032,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F97" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5100,10 +5061,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F98" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5129,10 +5090,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F99" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5158,10 +5119,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F100" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5187,10 +5148,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F101" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5216,10 +5177,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F102" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G102" t="n">
         <v>14</v>
@@ -5245,10 +5206,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F103" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G103" t="n">
         <v>12</v>
@@ -5274,10 +5235,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F104" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G104" t="n">
         <v>13</v>
@@ -5303,10 +5264,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F105" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G105" t="n">
         <v>6</v>
@@ -5332,10 +5293,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F106" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G106" t="n">
         <v>4</v>
@@ -5361,10 +5322,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F107" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -5390,10 +5351,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F108" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5419,10 +5380,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F109" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5448,10 +5409,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F110" t="s">
-        <v>198</v>
+        <v>47</v>
       </c>
       <c r="G110" t="n">
         <v>6</v>
@@ -5477,10 +5438,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F111" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -5506,10 +5467,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F112" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5535,10 +5496,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F113" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5564,10 +5525,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F114" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5593,10 +5554,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F115" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5622,10 +5583,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F116" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5651,10 +5612,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F117" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -5680,10 +5641,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F118" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5709,10 +5670,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F119" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5738,10 +5699,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F120" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5767,10 +5728,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F121" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -5796,10 +5757,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F122" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5825,10 +5786,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>54</v>
+      </c>
+      <c r="F123" t="s">
         <v>55</v>
-      </c>
-      <c r="F123" t="s">
-        <v>56</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -5854,10 +5815,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F124" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -5883,10 +5844,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F125" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5912,10 +5873,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F126" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5941,10 +5902,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F127" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -5970,10 +5931,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F128" t="s">
-        <v>232</v>
+        <v>163</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5999,10 +5960,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F129" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6028,10 +5989,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F130" t="s">
-        <v>236</v>
+        <v>91</v>
       </c>
       <c r="G130" t="n">
         <v>9</v>
@@ -6057,10 +6018,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F131" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6086,10 +6047,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F132" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6115,10 +6076,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F133" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6144,10 +6105,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F134" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6173,10 +6134,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F135" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6231,10 +6192,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>62</v>
+      </c>
+      <c r="F137" t="s">
         <v>63</v>
-      </c>
-      <c r="F137" t="s">
-        <v>64</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6260,10 +6221,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F138" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6289,10 +6250,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F139" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6318,10 +6279,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F140" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G140" t="n">
         <v>5</v>
@@ -6347,10 +6308,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F141" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6376,10 +6337,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F142" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6405,10 +6366,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F143" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6434,10 +6395,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F144" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6463,10 +6424,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F145" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6492,10 +6453,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F146" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6521,10 +6482,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F147" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G147" t="n">
         <v>3</v>
@@ -6550,10 +6511,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F148" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6579,10 +6540,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F149" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6608,10 +6569,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F150" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6637,10 +6598,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F151" t="s">
-        <v>270</v>
+        <v>167</v>
       </c>
       <c r="G151" t="n">
         <v>8</v>
@@ -6666,10 +6627,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F152" t="s">
-        <v>236</v>
+        <v>91</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -6695,10 +6656,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F153" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6724,10 +6685,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F154" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6753,10 +6714,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F155" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -6782,10 +6743,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F156" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6811,10 +6772,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F157" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="G157" t="n">
         <v>4</v>
@@ -6840,10 +6801,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F158" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6869,10 +6830,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F159" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6898,10 +6859,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F160" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6956,10 +6917,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F162" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="G162" t="n">
         <v>2</v>
@@ -6985,10 +6946,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="F163" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -7014,10 +6975,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>62</v>
+      </c>
+      <c r="F164" t="s">
         <v>63</v>
-      </c>
-      <c r="F164" t="s">
-        <v>64</v>
       </c>
       <c r="G164" t="n">
         <v>3</v>
@@ -7043,10 +7004,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F165" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="G165" t="n">
         <v>4</v>
@@ -7072,10 +7033,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F166" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7101,10 +7062,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F167" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7130,10 +7091,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F168" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7159,10 +7120,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F169" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7188,10 +7149,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F170" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7217,10 +7178,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F171" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7246,10 +7207,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F172" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7275,10 +7236,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F173" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7304,10 +7265,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F174" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7333,10 +7294,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F175" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7362,10 +7323,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F176" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7391,10 +7352,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F177" t="s">
-        <v>310</v>
+        <v>187</v>
       </c>
       <c r="G177" t="n">
         <v>3</v>
@@ -7420,10 +7381,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="F178" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7449,10 +7410,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F179" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7478,10 +7439,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="F180" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7507,10 +7468,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="F181" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7536,10 +7497,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="F182" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -7565,10 +7526,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="F183" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7594,10 +7555,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F184" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="G184" t="n">
         <v>2</v>
@@ -7623,10 +7584,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>42</v>
+      </c>
+      <c r="F185" t="s">
         <v>43</v>
-      </c>
-      <c r="F185" t="s">
-        <v>44</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7652,10 +7613,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>42</v>
+      </c>
+      <c r="F186" t="s">
         <v>43</v>
-      </c>
-      <c r="F186" t="s">
-        <v>44</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -7681,10 +7642,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="F187" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7710,10 +7671,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="F188" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7739,10 +7700,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="F189" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7768,10 +7729,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="F190" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7797,10 +7758,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="F191" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7826,10 +7787,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F192" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7855,10 +7816,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F193" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7884,10 +7845,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F194" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7913,10 +7874,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="F195" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7942,10 +7903,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="F196" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7971,10 +7932,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F197" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8000,10 +7961,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="F198" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8029,10 +7990,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="F199" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8058,10 +8019,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F200" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8087,10 +8048,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F201" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8116,10 +8077,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F202" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8145,10 +8106,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="F203" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -8174,10 +8135,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F204" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8232,10 +8193,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F206" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8261,10 +8222,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="F207" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8290,10 +8251,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="F208" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="G208" t="n">
         <v>2</v>
@@ -8319,10 +8280,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F209" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="G209" t="n">
         <v>3</v>
@@ -8377,10 +8338,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F211" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="G211" t="n">
         <v>12</v>
@@ -8406,10 +8367,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F212" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="G212" t="n">
         <v>4</v>
@@ -8435,10 +8396,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F213" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8464,10 +8425,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F214" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8493,10 +8454,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="F215" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="G215" t="n">
         <v>3</v>
@@ -8522,10 +8483,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F216" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8551,10 +8512,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="F217" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8580,10 +8541,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="F218" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G218" t="n">
         <v>3</v>
@@ -8609,10 +8570,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F219" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8638,10 +8599,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="F220" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8667,10 +8628,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="F221" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8696,10 +8657,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="F222" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8725,10 +8686,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="F223" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="G223" t="n">
         <v>2</v>
@@ -8754,10 +8715,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="F224" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8783,10 +8744,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="F225" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8812,10 +8773,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F226" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8841,10 +8802,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F227" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8870,10 +8831,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="F228" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8899,10 +8860,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="F229" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8928,10 +8889,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="F230" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8957,10 +8918,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="F231" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8986,10 +8947,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="F232" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="G232" t="n">
         <v>6</v>
@@ -9015,10 +8976,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="F233" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9044,10 +9005,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F234" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9073,10 +9034,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="F235" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9102,10 +9063,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F236" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9131,10 +9092,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="F237" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9160,10 +9121,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F238" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9189,10 +9150,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="F239" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9218,10 +9179,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="F240" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9247,10 +9208,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="F241" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9276,10 +9237,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="F242" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9305,10 +9266,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
+        <v>48</v>
+      </c>
+      <c r="F243" t="s">
         <v>49</v>
-      </c>
-      <c r="F243" t="s">
-        <v>50</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9334,10 +9295,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="F244" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9363,10 +9324,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="F245" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9392,10 +9353,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="F246" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9421,10 +9382,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="F247" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9450,10 +9411,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
+        <v>56</v>
+      </c>
+      <c r="F248" t="s">
         <v>57</v>
-      </c>
-      <c r="F248" t="s">
-        <v>58</v>
       </c>
       <c r="G248" t="n">
         <v>2</v>
@@ -9479,10 +9440,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
+        <v>66</v>
+      </c>
+      <c r="F249" t="s">
         <v>67</v>
-      </c>
-      <c r="F249" t="s">
-        <v>68</v>
       </c>
       <c r="G249" t="n">
         <v>2</v>
@@ -9508,10 +9469,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
+        <v>50</v>
+      </c>
+      <c r="F250" t="s">
         <v>51</v>
-      </c>
-      <c r="F250" t="s">
-        <v>52</v>
       </c>
       <c r="G250" t="n">
         <v>2</v>
@@ -9537,10 +9498,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
+        <v>58</v>
+      </c>
+      <c r="F251" t="s">
         <v>59</v>
-      </c>
-      <c r="F251" t="s">
-        <v>60</v>
       </c>
       <c r="G251" t="n">
         <v>2</v>
@@ -9566,10 +9527,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="F252" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9595,10 +9556,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F253" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="G253" t="n">
         <v>3</v>
@@ -9624,10 +9585,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="F254" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="G254" t="n">
         <v>2</v>
@@ -9653,10 +9614,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="F255" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9682,10 +9643,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F256" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9711,10 +9672,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="F257" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="G257" t="n">
         <v>3</v>
@@ -9740,10 +9701,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="F258" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9769,10 +9730,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="F259" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9798,10 +9759,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="F260" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9827,10 +9788,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="F261" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9856,10 +9817,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="F262" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9885,10 +9846,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="F263" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9914,10 +9875,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="F264" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9943,10 +9904,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="F265" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9972,10 +9933,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="F266" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="G266" t="n">
         <v>2</v>
@@ -10001,10 +9962,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="F267" t="s">
-        <v>462</v>
+        <v>368</v>
       </c>
       <c r="G267" t="n">
         <v>2</v>
@@ -10030,10 +9991,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="F268" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10059,10 +10020,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="F269" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="G269" t="n">
         <v>3</v>
@@ -10088,10 +10049,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F270" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10117,10 +10078,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="F271" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10146,10 +10107,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="F272" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10175,10 +10136,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="F273" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10204,10 +10165,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="F274" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10233,10 +10194,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="F275" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10262,10 +10223,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="F276" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10291,10 +10252,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="F277" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10320,10 +10281,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="F278" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10349,10 +10310,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="F279" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10378,10 +10339,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="F280" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10407,10 +10368,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="F281" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10436,10 +10397,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="F282" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10465,10 +10426,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="F283" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10494,10 +10455,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
+        <v>60</v>
+      </c>
+      <c r="F284" t="s">
         <v>61</v>
-      </c>
-      <c r="F284" t="s">
-        <v>62</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10523,10 +10484,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="F285" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10552,10 +10513,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="F286" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="G286" t="n">
         <v>2</v>
@@ -10581,10 +10542,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="F287" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="G287" t="n">
         <v>2</v>
@@ -10610,10 +10571,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="F288" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10639,10 +10600,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="F289" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10668,10 +10629,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="F290" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10697,10 +10658,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F291" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10726,10 +10687,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="F292" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10755,10 +10716,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="F293" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10784,10 +10745,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="F294" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="G294" t="n">
         <v>2</v>
@@ -10813,10 +10774,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="F295" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10842,10 +10803,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="F296" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10871,10 +10832,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="F297" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -10900,10 +10861,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="F298" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -10929,10 +10890,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F299" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -10958,10 +10919,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="F300" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -10987,10 +10948,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="F301" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11016,10 +10977,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F302" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G302" t="n">
         <v>2</v>
@@ -11045,10 +11006,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F303" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11074,10 +11035,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="F304" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11103,10 +11064,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="F305" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11132,10 +11093,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="F306" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11161,10 +11122,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F307" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11190,10 +11151,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F308" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="G308" t="n">
         <v>3</v>
@@ -11219,10 +11180,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F309" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G309" t="n">
         <v>2</v>
@@ -11248,10 +11209,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="F310" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="G310" t="n">
         <v>4</v>
@@ -11277,10 +11238,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="F311" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="G311" t="n">
         <v>2</v>
@@ -11306,10 +11267,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="F312" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="G312" t="n">
         <v>4</v>
@@ -11335,10 +11296,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="F313" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="G313" t="n">
         <v>2</v>
@@ -11364,10 +11325,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="F314" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11393,10 +11354,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="F315" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11422,10 +11383,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="F316" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="G316" t="n">
         <v>3</v>
@@ -11451,10 +11412,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F317" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G317" t="n">
         <v>2</v>
@@ -11480,10 +11441,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="F318" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="G318" t="n">
         <v>2</v>
@@ -11509,10 +11470,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="F319" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="G319" t="n">
         <v>4</v>
@@ -11538,10 +11499,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
+        <v>48</v>
+      </c>
+      <c r="F320" t="s">
         <v>49</v>
-      </c>
-      <c r="F320" t="s">
-        <v>50</v>
       </c>
       <c r="G320" t="n">
         <v>2</v>
@@ -11567,10 +11528,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="F321" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11596,10 +11557,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="F322" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G322" t="n">
         <v>2</v>
@@ -11654,10 +11615,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="F324" t="s">
-        <v>538</v>
+        <v>420</v>
       </c>
       <c r="G324" t="n">
         <v>2</v>
@@ -11683,10 +11644,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="F325" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="G325" t="n">
         <v>2</v>
@@ -11712,10 +11673,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
+        <v>28</v>
+      </c>
+      <c r="F326" t="s">
         <v>29</v>
-      </c>
-      <c r="F326" t="s">
-        <v>30</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11741,10 +11702,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="F327" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -11770,10 +11731,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="F328" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -11799,10 +11760,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="F329" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -11828,10 +11789,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="F330" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -11857,10 +11818,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="F331" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -11886,10 +11847,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="F332" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -11915,10 +11876,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="F333" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -11944,10 +11905,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="F334" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -11973,10 +11934,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F335" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12002,10 +11963,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="F336" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12031,10 +11992,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="F337" t="s">
-        <v>558</v>
+        <v>165</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12060,10 +12021,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="F338" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12118,10 +12079,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="F340" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12147,10 +12108,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="F341" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12176,10 +12137,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="F342" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12205,10 +12166,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="F343" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12234,10 +12195,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="F344" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12263,10 +12224,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="F345" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12292,10 +12253,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="F346" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12321,10 +12282,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="F347" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12350,10 +12311,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="F348" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12379,10 +12340,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="F349" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12408,10 +12369,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="F350" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12437,10 +12398,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="F351" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="G351" t="n">
         <v>2</v>
@@ -12466,10 +12427,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="F352" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12495,10 +12456,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="F353" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12524,10 +12485,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="F354" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -12553,10 +12514,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="F355" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -12582,10 +12543,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="F356" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="G356" t="n">
         <v>9</v>
@@ -12611,10 +12572,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="F357" t="s">
-        <v>596</v>
+        <v>123</v>
       </c>
       <c r="G357" t="n">
         <v>2</v>
@@ -12640,10 +12601,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="F358" t="s">
-        <v>598</v>
+        <v>81</v>
       </c>
       <c r="G358" t="n">
         <v>3</v>
@@ -12669,10 +12630,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="F359" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -12698,10 +12659,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="F360" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -12727,10 +12688,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F361" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G361" t="n">
         <v>4</v>
@@ -12756,10 +12717,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="F362" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -12785,10 +12746,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="F363" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -12814,10 +12775,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="F364" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -12843,10 +12804,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="F365" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="G365" t="n">
         <v>5</v>
@@ -12872,10 +12833,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="F366" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -12901,10 +12862,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="F367" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -12930,10 +12891,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="F368" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -12959,10 +12920,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="F369" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -12988,10 +12949,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="F370" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="G370" t="n">
         <v>4</v>
@@ -13017,10 +12978,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="F371" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13046,10 +13007,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="F372" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13075,10 +13036,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="F373" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13104,10 +13065,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="F374" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="G374" t="n">
         <v>3</v>
@@ -13133,10 +13094,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="F375" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="G375" t="n">
         <v>71</v>
@@ -13162,10 +13123,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
+        <v>40</v>
+      </c>
+      <c r="F376" t="s">
         <v>41</v>
-      </c>
-      <c r="F376" t="s">
-        <v>42</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13191,10 +13152,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="F377" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13220,10 +13181,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="F378" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="G378" t="n">
         <v>9</v>
@@ -13249,10 +13210,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="F379" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13278,10 +13239,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="F380" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
